--- a/uploads/predictions.xlsx
+++ b/uploads/predictions.xlsx
@@ -489,10 +489,10 @@
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.0238</v>
+        <v>0.0244</v>
       </c>
       <c r="E2">
-        <v>0.9762</v>
+        <v>0.9756</v>
       </c>
       <c r="F2" t="s">
         <v>25</v>
@@ -509,10 +509,10 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>0.8043</v>
+        <v>0.8077</v>
       </c>
       <c r="E3">
-        <v>0.1957</v>
+        <v>0.1923</v>
       </c>
       <c r="F3" t="s">
         <v>26</v>
@@ -529,10 +529,10 @@
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.0238</v>
+        <v>0.0244</v>
       </c>
       <c r="E4">
-        <v>0.9762</v>
+        <v>0.9756</v>
       </c>
       <c r="F4" t="s">
         <v>25</v>
@@ -549,10 +549,10 @@
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.0238</v>
+        <v>0.0244</v>
       </c>
       <c r="E5">
-        <v>0.9762</v>
+        <v>0.9756</v>
       </c>
       <c r="F5" t="s">
         <v>25</v>
@@ -569,10 +569,10 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.021</v>
+        <v>0.0193</v>
       </c>
       <c r="E6">
-        <v>0.979</v>
+        <v>0.9807</v>
       </c>
       <c r="F6" t="s">
         <v>25</v>
@@ -589,10 +589,10 @@
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0591</v>
+        <v>0.0514</v>
       </c>
       <c r="E7">
-        <v>0.9409</v>
+        <v>0.9486</v>
       </c>
       <c r="F7" t="s">
         <v>25</v>
@@ -609,10 +609,10 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0216</v>
+        <v>0.0197</v>
       </c>
       <c r="E8">
-        <v>0.9784</v>
+        <v>0.9802999999999999</v>
       </c>
       <c r="F8" t="s">
         <v>25</v>
@@ -629,10 +629,10 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0238</v>
+        <v>0.0244</v>
       </c>
       <c r="E9">
-        <v>0.9762</v>
+        <v>0.9756</v>
       </c>
       <c r="F9" t="s">
         <v>25</v>
@@ -649,10 +649,10 @@
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0238</v>
+        <v>0.0244</v>
       </c>
       <c r="E10">
-        <v>0.9762</v>
+        <v>0.9756</v>
       </c>
       <c r="F10" t="s">
         <v>25</v>
@@ -669,10 +669,10 @@
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.0238</v>
+        <v>0.0244</v>
       </c>
       <c r="E11">
-        <v>0.9762</v>
+        <v>0.9756</v>
       </c>
       <c r="F11" t="s">
         <v>25</v>
